--- a/testdata/testdata.xlsx
+++ b/testdata/testdata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\REZA\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC70A6EE-B99E-43BA-A42E-8B4CBA25AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B86F56-1EDB-4D6C-B6A8-A8323A2F8B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="825" windowWidth="21675" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
+    <sheet name="checkout" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Shibly</t>
   </si>
   <si>
-    <t>mail123981@yahoo.com</t>
-  </si>
-  <si>
     <t>mr</t>
   </si>
   <si>
@@ -118,6 +116,15 @@
   </si>
   <si>
     <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>testermail1230@yahoo.com</t>
+  </si>
+  <si>
+    <t>testermail1231@yahoo.com</t>
+  </si>
+  <si>
+    <t>+18801244588</t>
   </si>
 </sst>
 </file>
@@ -456,12 +463,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="A4" sqref="A4:XFD380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
@@ -527,10 +534,10 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -539,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2">
         <v>2000</v>
@@ -548,25 +555,25 @@
         <v>16</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" t="s">
-        <v>24</v>
       </c>
       <c r="N2">
         <v>11201</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -574,13 +581,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -589,34 +596,34 @@
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
         <v>2001</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>11201</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -626,9 +633,131 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{7E712060-04C3-43B7-9173-B376A4DFB74F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{A8F5B725-F45E-4E68-AF53-272224A5637D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{4FB51B69-DE26-47EA-A334-15B5E835F7AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACADA918-899D-4C65-BA93-C20573C8D5FD}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD380"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <v>11201</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3DCF794D-5371-4E74-B91D-8E83B928F28A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>